--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -5409,16 +5409,16 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>13281</v>
+        <v>13283</v>
       </c>
       <c r="C59">
-        <v>20141</v>
+        <v>20143</v>
       </c>
       <c r="D59">
-        <v>63585</v>
+        <v>63581</v>
       </c>
       <c r="E59">
-        <v>43445</v>
+        <v>43438</v>
       </c>
       <c r="F59">
         <v>59032</v>
@@ -5433,13 +5433,13 @@
         <v>20790</v>
       </c>
       <c r="J59">
-        <v>-5292</v>
+        <v>-5290</v>
       </c>
       <c r="K59">
-        <v>11219</v>
+        <v>11214</v>
       </c>
       <c r="L59">
-        <v>16510</v>
+        <v>16504</v>
       </c>
       <c r="M59">
         <v>8165</v>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -5409,19 +5409,19 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>13283</v>
+        <v>13256</v>
       </c>
       <c r="C59">
-        <v>20143</v>
+        <v>20016</v>
       </c>
       <c r="D59">
-        <v>63581</v>
+        <v>63462</v>
       </c>
       <c r="E59">
-        <v>43438</v>
+        <v>43447</v>
       </c>
       <c r="F59">
-        <v>59032</v>
+        <v>59078</v>
       </c>
       <c r="G59">
         <v>16887</v>
@@ -5433,16 +5433,16 @@
         <v>20790</v>
       </c>
       <c r="J59">
-        <v>-5290</v>
+        <v>-5407</v>
       </c>
       <c r="K59">
-        <v>11214</v>
+        <v>11096</v>
       </c>
       <c r="L59">
         <v>16504</v>
       </c>
       <c r="M59">
-        <v>8165</v>
+        <v>8164</v>
       </c>
       <c r="N59">
         <v>8469</v>
@@ -5460,28 +5460,28 @@
         <v>1239</v>
       </c>
       <c r="S59">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="T59">
         <v>2083</v>
       </c>
       <c r="U59">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="V59">
-        <v>-470</v>
+        <v>-468</v>
       </c>
       <c r="W59">
         <v>2854</v>
       </c>
       <c r="X59">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="Y59">
-        <v>-6860</v>
+        <v>-6760</v>
       </c>
       <c r="Z59">
-        <v>56555</v>
+        <v>56655</v>
       </c>
       <c r="AA59">
         <v>63415</v>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Serie</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5487,6 +5490,35 @@
         <v>63415</v>
       </c>
     </row>
+    <row r="60" spans="1:27">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>13924</v>
+      </c>
+      <c r="C60">
+        <v>19621</v>
+      </c>
+      <c r="D60">
+        <v>58826</v>
+      </c>
+      <c r="E60">
+        <v>39205</v>
+      </c>
+      <c r="F60">
+        <v>59801</v>
+      </c>
+      <c r="Y60">
+        <v>-5698</v>
+      </c>
+      <c r="Z60">
+        <v>64849</v>
+      </c>
+      <c r="AA60">
+        <v>70547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -5412,19 +5412,19 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>13256</v>
+        <v>13260</v>
       </c>
       <c r="C59">
-        <v>20016</v>
+        <v>20020</v>
       </c>
       <c r="D59">
-        <v>63462</v>
+        <v>63497</v>
       </c>
       <c r="E59">
-        <v>43447</v>
+        <v>43477</v>
       </c>
       <c r="F59">
-        <v>59078</v>
+        <v>59118</v>
       </c>
       <c r="G59">
         <v>16887</v>
@@ -5436,19 +5436,19 @@
         <v>20790</v>
       </c>
       <c r="J59">
-        <v>-5407</v>
+        <v>-5404</v>
       </c>
       <c r="K59">
-        <v>11096</v>
+        <v>11133</v>
       </c>
       <c r="L59">
-        <v>16504</v>
+        <v>16537</v>
       </c>
       <c r="M59">
-        <v>8164</v>
+        <v>8162</v>
       </c>
       <c r="N59">
-        <v>8469</v>
+        <v>8466</v>
       </c>
       <c r="O59">
         <v>304</v>
@@ -5472,13 +5472,13 @@
         <v>1287</v>
       </c>
       <c r="V59">
-        <v>-468</v>
+        <v>-466</v>
       </c>
       <c r="W59">
         <v>2854</v>
       </c>
       <c r="X59">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="Y59">
         <v>-6760</v>
@@ -5495,19 +5495,73 @@
         <v>71</v>
       </c>
       <c r="B60">
-        <v>13924</v>
+        <v>13918</v>
       </c>
       <c r="C60">
-        <v>19621</v>
+        <v>19616</v>
       </c>
       <c r="D60">
-        <v>58826</v>
+        <v>58820</v>
       </c>
       <c r="E60">
         <v>39205</v>
       </c>
       <c r="F60">
         <v>59801</v>
+      </c>
+      <c r="G60">
+        <v>13892</v>
+      </c>
+      <c r="H60">
+        <v>31675</v>
+      </c>
+      <c r="I60">
+        <v>17783</v>
+      </c>
+      <c r="J60">
+        <v>-3645</v>
+      </c>
+      <c r="K60">
+        <v>12136</v>
+      </c>
+      <c r="L60">
+        <v>15781</v>
+      </c>
+      <c r="M60">
+        <v>8507</v>
+      </c>
+      <c r="N60">
+        <v>8831</v>
+      </c>
+      <c r="O60">
+        <v>324</v>
+      </c>
+      <c r="P60">
+        <v>43</v>
+      </c>
+      <c r="Q60">
+        <v>1508</v>
+      </c>
+      <c r="R60">
+        <v>1465</v>
+      </c>
+      <c r="S60">
+        <v>1063</v>
+      </c>
+      <c r="T60">
+        <v>2109</v>
+      </c>
+      <c r="U60">
+        <v>1046</v>
+      </c>
+      <c r="V60">
+        <v>-245</v>
+      </c>
+      <c r="W60">
+        <v>2561</v>
+      </c>
+      <c r="X60">
+        <v>2806</v>
       </c>
       <c r="Y60">
         <v>-5698</v>
